--- a/suivi de tache.xlsx
+++ b/suivi de tache.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROJET-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D05ECD-C3EE-437D-A95E-188EF86582FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5355DA4-75BB-45D9-B366-DD2CC7A82DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4716025B-4AE1-4CBF-BE76-D7EA982BC046}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,17 +585,17 @@
         <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="e">
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H36" si="0">(F2/(F2+G2))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -639,17 +639,17 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,17 +666,17 @@
         <v>33</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -720,17 +720,17 @@
         <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -747,17 +747,17 @@
         <v>33</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1350,11 +1350,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2">
         <f>SUM(E2:E24)</f>
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="F36" s="2">
         <f>SUM(F2:F24)</f>
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2">
         <f>SUM(G2:G24)</f>
